--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H2">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03770933333333333</v>
+        <v>0.03770933333333334</v>
       </c>
       <c r="N2">
         <v>0.113128</v>
       </c>
       <c r="O2">
-        <v>0.002153323738599274</v>
+        <v>0.002312114438955197</v>
       </c>
       <c r="P2">
-        <v>0.002153323738599274</v>
+        <v>0.002312114438955196</v>
       </c>
       <c r="Q2">
-        <v>0.1566324408311111</v>
+        <v>0.1440656798</v>
       </c>
       <c r="R2">
-        <v>1.40969196748</v>
+        <v>1.2965911182</v>
       </c>
       <c r="S2">
-        <v>4.883115269419261E-05</v>
+        <v>4.739055509308268E-05</v>
       </c>
       <c r="T2">
-        <v>4.883115269419262E-05</v>
+        <v>4.739055509308267E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H3">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2240396666666667</v>
+        <v>0.2240396666666666</v>
       </c>
       <c r="N3">
-        <v>0.672119</v>
+        <v>0.6721189999999999</v>
       </c>
       <c r="O3">
-        <v>0.01279338269803767</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="P3">
-        <v>0.01279338269803767</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="Q3">
-        <v>0.9305887092405554</v>
+        <v>0.855926743525</v>
       </c>
       <c r="R3">
-        <v>8.375298383164999</v>
+        <v>7.703340691724999</v>
       </c>
       <c r="S3">
-        <v>0.0002901169075531084</v>
+        <v>0.0002815579918199529</v>
       </c>
       <c r="T3">
-        <v>0.0002901169075531084</v>
+        <v>0.0002815579918199529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H4">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.854348333333333</v>
+        <v>8.868391666666668</v>
       </c>
       <c r="N4">
-        <v>23.563045</v>
+        <v>26.605175</v>
       </c>
       <c r="O4">
-        <v>0.4485084519498527</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="P4">
-        <v>0.4485084519498526</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="Q4">
-        <v>32.62443649461944</v>
+        <v>33.88102523312501</v>
       </c>
       <c r="R4">
-        <v>293.6199284515749</v>
+        <v>304.9292270981251</v>
       </c>
       <c r="S4">
-        <v>0.0101708741278475</v>
+        <v>0.01114519846190692</v>
       </c>
       <c r="T4">
-        <v>0.0101708741278475</v>
+        <v>0.01114519846190692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H5">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.013214</v>
+        <v>0.03881966666666666</v>
       </c>
       <c r="N5">
-        <v>0.039642</v>
+        <v>0.116459</v>
       </c>
       <c r="O5">
-        <v>0.0007545617322462382</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="P5">
-        <v>0.0007545617322462382</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="Q5">
-        <v>0.05488670549666667</v>
+        <v>0.148307625025</v>
       </c>
       <c r="R5">
-        <v>0.49398034947</v>
+        <v>1.334768625225</v>
       </c>
       <c r="S5">
-        <v>1.711127709411626E-05</v>
+        <v>4.878594738336498E-05</v>
       </c>
       <c r="T5">
-        <v>1.711127709411626E-05</v>
+        <v>4.878594738336499E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H6">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I6">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J6">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.382840999999999</v>
+        <v>7.140497666666666</v>
       </c>
       <c r="N6">
-        <v>28.148523</v>
+        <v>21.421493</v>
       </c>
       <c r="O6">
-        <v>0.5357902798812642</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="P6">
-        <v>0.5357902798812642</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="Q6">
-        <v>38.97330336681166</v>
+        <v>27.279735798175</v>
       </c>
       <c r="R6">
-        <v>350.759730301305</v>
+        <v>245.517622183575</v>
       </c>
       <c r="S6">
-        <v>0.01215017347366693</v>
+        <v>0.008973697441770248</v>
       </c>
       <c r="T6">
-        <v>0.01215017347366693</v>
+        <v>0.008973697441770248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J7">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03770933333333333</v>
+        <v>0.03770933333333334</v>
       </c>
       <c r="N7">
         <v>0.113128</v>
       </c>
       <c r="O7">
-        <v>0.002153323738599274</v>
+        <v>0.002312114438955197</v>
       </c>
       <c r="P7">
-        <v>0.002153323738599274</v>
+        <v>0.002312114438955196</v>
       </c>
       <c r="Q7">
-        <v>5.301520505886222</v>
+        <v>5.301520505886223</v>
       </c>
       <c r="R7">
-        <v>47.713684552976</v>
+        <v>47.71368455297601</v>
       </c>
       <c r="S7">
-        <v>0.001652782501253747</v>
+        <v>0.001743940680112687</v>
       </c>
       <c r="T7">
-        <v>0.001652782501253748</v>
+        <v>0.001743940680112686</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J8">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2240396666666667</v>
+        <v>0.2240396666666666</v>
       </c>
       <c r="N8">
-        <v>0.672119</v>
+        <v>0.6721189999999999</v>
       </c>
       <c r="O8">
-        <v>0.01279338269803767</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="P8">
-        <v>0.01279338269803767</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="Q8">
         <v>31.49753076953311</v>
@@ -948,10 +948,10 @@
         <v>283.477776925798</v>
       </c>
       <c r="S8">
-        <v>0.009819554150698035</v>
+        <v>0.01036114548101848</v>
       </c>
       <c r="T8">
-        <v>0.009819554150698039</v>
+        <v>0.01036114548101848</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J9">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.854348333333333</v>
+        <v>8.868391666666668</v>
       </c>
       <c r="N9">
-        <v>23.563045</v>
+        <v>26.605175</v>
       </c>
       <c r="O9">
-        <v>0.4485084519498527</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="P9">
-        <v>0.4485084519498526</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="Q9">
-        <v>1104.235611419099</v>
+        <v>1246.799031408595</v>
       </c>
       <c r="R9">
-        <v>9938.12050277189</v>
+        <v>11221.19128267735</v>
       </c>
       <c r="S9">
-        <v>0.3442524260329415</v>
+        <v>0.4101358371403812</v>
       </c>
       <c r="T9">
-        <v>0.3442524260329415</v>
+        <v>0.4101358371403813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>421.767242</v>
       </c>
       <c r="I10">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J10">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.013214</v>
+        <v>0.03881966666666666</v>
       </c>
       <c r="N10">
-        <v>0.039642</v>
+        <v>0.116459</v>
       </c>
       <c r="O10">
-        <v>0.0007545617322462382</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="P10">
-        <v>0.0007545617322462382</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="Q10">
-        <v>1.857744111929333</v>
+        <v>5.45762124845311</v>
       </c>
       <c r="R10">
-        <v>16.719697007364</v>
+        <v>49.118591236078</v>
       </c>
       <c r="S10">
-        <v>0.0005791634601044928</v>
+        <v>0.001795290181610594</v>
       </c>
       <c r="T10">
-        <v>0.0005791634601044929</v>
+        <v>0.001795290181610595</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>421.767242</v>
       </c>
       <c r="I11">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J11">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.382840999999999</v>
+        <v>7.140497666666666</v>
       </c>
       <c r="N11">
-        <v>28.148523</v>
+        <v>21.421493</v>
       </c>
       <c r="O11">
-        <v>0.5357902798812642</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="P11">
-        <v>0.5357902798812642</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="Q11">
-        <v>1319.124990231507</v>
+        <v>1003.876002459145</v>
       </c>
       <c r="R11">
-        <v>11872.12491208357</v>
+        <v>9034.884022132306</v>
       </c>
       <c r="S11">
-        <v>0.4112455470841757</v>
+        <v>0.3302260543052926</v>
       </c>
       <c r="T11">
-        <v>0.4112455470841758</v>
+        <v>0.3302260543052927</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H12">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.03770933333333333</v>
+        <v>0.03770933333333334</v>
       </c>
       <c r="N12">
         <v>0.113128</v>
       </c>
       <c r="O12">
-        <v>0.002153323738599274</v>
+        <v>0.002312114438955197</v>
       </c>
       <c r="P12">
-        <v>0.002153323738599274</v>
+        <v>0.002312114438955196</v>
       </c>
       <c r="Q12">
-        <v>0.268602575751111</v>
+        <v>1.150537025253334</v>
       </c>
       <c r="R12">
-        <v>2.417423181759999</v>
+        <v>10.35483322728</v>
       </c>
       <c r="S12">
-        <v>8.37385494407155E-05</v>
+        <v>0.000378470350173571</v>
       </c>
       <c r="T12">
-        <v>8.373854944071552E-05</v>
+        <v>0.0003784703501735709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H13">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2240396666666667</v>
+        <v>0.2240396666666666</v>
       </c>
       <c r="N13">
-        <v>0.672119</v>
+        <v>0.6721189999999999</v>
       </c>
       <c r="O13">
-        <v>0.01279338269803767</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="P13">
-        <v>0.01279338269803767</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="Q13">
-        <v>1.595828571275555</v>
+        <v>6.835600336576666</v>
       </c>
       <c r="R13">
-        <v>14.36245714148</v>
+        <v>61.52040302918999</v>
       </c>
       <c r="S13">
-        <v>0.0004975096360896</v>
+        <v>0.002248577834738617</v>
       </c>
       <c r="T13">
-        <v>0.0004975096360896</v>
+        <v>0.002248577834738617</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H14">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I14">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J14">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.854348333333333</v>
+        <v>8.868391666666668</v>
       </c>
       <c r="N14">
-        <v>23.563045</v>
+        <v>26.605175</v>
       </c>
       <c r="O14">
-        <v>0.4485084519498527</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="P14">
-        <v>0.4485084519498526</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="Q14">
-        <v>55.94631372904443</v>
+        <v>270.5805715724167</v>
       </c>
       <c r="R14">
-        <v>503.5168235613999</v>
+        <v>2435.22514415175</v>
       </c>
       <c r="S14">
-        <v>0.01744161665287377</v>
+        <v>0.0890077602245168</v>
       </c>
       <c r="T14">
-        <v>0.01744161665287377</v>
+        <v>0.0890077602245168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H15">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I15">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J15">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.013214</v>
+        <v>0.03881966666666666</v>
       </c>
       <c r="N15">
-        <v>0.039642</v>
+        <v>0.116459</v>
       </c>
       <c r="O15">
-        <v>0.0007545617322462382</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="P15">
-        <v>0.0007545617322462382</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="Q15">
-        <v>0.09412296962666665</v>
+        <v>1.184414039176667</v>
       </c>
       <c r="R15">
-        <v>0.8471067266399999</v>
+        <v>10.65972635259</v>
       </c>
       <c r="S15">
-        <v>2.934343024652468E-05</v>
+        <v>0.000389614229110953</v>
       </c>
       <c r="T15">
-        <v>2.934343024652469E-05</v>
+        <v>0.000389614229110953</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H16">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I16">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J16">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.382840999999999</v>
+        <v>7.140497666666666</v>
       </c>
       <c r="N16">
-        <v>28.148523</v>
+        <v>21.421493</v>
       </c>
       <c r="O16">
-        <v>0.5357902798812642</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="P16">
-        <v>0.5357902798812642</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="Q16">
-        <v>66.83372623390665</v>
+        <v>217.8613679434366</v>
       </c>
       <c r="R16">
-        <v>601.5035361051598</v>
+        <v>1960.75231149093</v>
       </c>
       <c r="S16">
-        <v>0.02083583626439623</v>
+        <v>0.07166572340137452</v>
       </c>
       <c r="T16">
-        <v>0.02083583626439624</v>
+        <v>0.07166572340137452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H17">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I17">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J17">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03770933333333333</v>
+        <v>0.03770933333333334</v>
       </c>
       <c r="N17">
         <v>0.113128</v>
       </c>
       <c r="O17">
-        <v>0.002153323738599274</v>
+        <v>0.002312114438955197</v>
       </c>
       <c r="P17">
-        <v>0.002153323738599274</v>
+        <v>0.002312114438955196</v>
       </c>
       <c r="Q17">
-        <v>0.01459353713955556</v>
+        <v>0.009759665688000001</v>
       </c>
       <c r="R17">
-        <v>0.131341834256</v>
+        <v>0.087836991192</v>
       </c>
       <c r="S17">
-        <v>4.549627373670247E-06</v>
+        <v>3.210452170977315E-06</v>
       </c>
       <c r="T17">
-        <v>4.549627373670248E-06</v>
+        <v>3.210452170977314E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H18">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I18">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J18">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2240396666666667</v>
+        <v>0.2240396666666666</v>
       </c>
       <c r="N18">
-        <v>0.672119</v>
+        <v>0.6721189999999999</v>
       </c>
       <c r="O18">
-        <v>0.01279338269803767</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="P18">
-        <v>0.01279338269803767</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="Q18">
-        <v>0.08670350035977779</v>
+        <v>0.057984378249</v>
       </c>
       <c r="R18">
-        <v>0.780331503238</v>
+        <v>0.521859404241</v>
       </c>
       <c r="S18">
-        <v>2.703036384240747E-05</v>
+        <v>1.907402148632612E-05</v>
       </c>
       <c r="T18">
-        <v>2.703036384240748E-05</v>
+        <v>1.907402148632612E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H19">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I19">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J19">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.854348333333333</v>
+        <v>8.868391666666668</v>
       </c>
       <c r="N19">
-        <v>23.563045</v>
+        <v>26.605175</v>
       </c>
       <c r="O19">
-        <v>0.4485084519498527</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="P19">
-        <v>0.4485084519498526</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="Q19">
-        <v>3.039638041232223</v>
+        <v>2.295255052425</v>
       </c>
       <c r="R19">
-        <v>27.35674237109</v>
+        <v>20.657295471825</v>
       </c>
       <c r="S19">
-        <v>0.000947626357215047</v>
+        <v>0.0007550265348806784</v>
       </c>
       <c r="T19">
-        <v>0.000947626357215047</v>
+        <v>0.0007550265348806783</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H20">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I20">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J20">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.013214</v>
+        <v>0.03881966666666666</v>
       </c>
       <c r="N20">
-        <v>0.039642</v>
+        <v>0.116459</v>
       </c>
       <c r="O20">
-        <v>0.0007545617322462382</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="P20">
-        <v>0.0007545617322462382</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="Q20">
-        <v>0.005113826809333335</v>
+        <v>0.010047034389</v>
       </c>
       <c r="R20">
-        <v>0.04602444128400001</v>
+        <v>0.090423309501</v>
       </c>
       <c r="S20">
-        <v>1.594267805910437E-06</v>
+        <v>3.304982403824402E-06</v>
       </c>
       <c r="T20">
-        <v>1.594267805910437E-06</v>
+        <v>3.304982403824402E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H21">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I21">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J21">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.382840999999999</v>
+        <v>7.140497666666666</v>
       </c>
       <c r="N21">
-        <v>28.148523</v>
+        <v>21.421493</v>
       </c>
       <c r="O21">
-        <v>0.5357902798812642</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="P21">
-        <v>0.5357902798812642</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="Q21">
-        <v>3.631165722227333</v>
+        <v>1.848053622603</v>
       </c>
       <c r="R21">
-        <v>32.680491500046</v>
+        <v>16.632482603427</v>
       </c>
       <c r="S21">
-        <v>0.001132038847758172</v>
+        <v>0.0006079191597785281</v>
       </c>
       <c r="T21">
-        <v>0.001132038847758172</v>
+        <v>0.000607919159778528</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H22">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I22">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J22">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1798,28 +1798,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.03770933333333333</v>
+        <v>0.03770933333333334</v>
       </c>
       <c r="N22">
         <v>0.113128</v>
       </c>
       <c r="O22">
-        <v>0.002153323738599274</v>
+        <v>0.002312114438955197</v>
       </c>
       <c r="P22">
-        <v>0.002153323738599274</v>
+        <v>0.002312114438955196</v>
       </c>
       <c r="Q22">
-        <v>1.165724283276445</v>
+        <v>0.4228665813440001</v>
       </c>
       <c r="R22">
-        <v>10.491518549488</v>
+        <v>3.805799232096</v>
       </c>
       <c r="S22">
-        <v>0.0003634219078369483</v>
+        <v>0.0001391024014048789</v>
       </c>
       <c r="T22">
-        <v>0.0003634219078369484</v>
+        <v>0.0001391024014048789</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H23">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I23">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J23">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2240396666666667</v>
+        <v>0.2240396666666666</v>
       </c>
       <c r="N23">
-        <v>0.672119</v>
+        <v>0.6721189999999999</v>
       </c>
       <c r="O23">
-        <v>0.01279338269803767</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="P23">
-        <v>0.01279338269803767</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="Q23">
-        <v>6.925831266808223</v>
+        <v>2.512345871812</v>
       </c>
       <c r="R23">
-        <v>62.33248140127401</v>
+        <v>22.611112846308</v>
       </c>
       <c r="S23">
-        <v>0.002159171639854517</v>
+        <v>0.0008264387855336061</v>
       </c>
       <c r="T23">
-        <v>0.002159171639854518</v>
+        <v>0.0008264387855336061</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H24">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I24">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J24">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.854348333333333</v>
+        <v>8.868391666666668</v>
       </c>
       <c r="N24">
-        <v>23.563045</v>
+        <v>26.605175</v>
       </c>
       <c r="O24">
-        <v>0.4485084519498527</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="P24">
-        <v>0.4485084519498526</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="Q24">
-        <v>242.8047322010078</v>
+        <v>99.44876068090001</v>
       </c>
       <c r="R24">
-        <v>2185.24258980907</v>
+        <v>895.0388461281001</v>
       </c>
       <c r="S24">
-        <v>0.07569590877897482</v>
+        <v>0.03271377317991169</v>
       </c>
       <c r="T24">
-        <v>0.07569590877897484</v>
+        <v>0.03271377317991169</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H25">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I25">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J25">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1984,28 +1984,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.013214</v>
+        <v>0.03881966666666666</v>
       </c>
       <c r="N25">
-        <v>0.039642</v>
+        <v>0.116459</v>
       </c>
       <c r="O25">
-        <v>0.0007545617322462382</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="P25">
-        <v>0.0007545617322462382</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="Q25">
-        <v>0.4084898702146668</v>
+        <v>0.4353176861319999</v>
       </c>
       <c r="R25">
-        <v>3.676408831932001</v>
+        <v>3.917859175188</v>
       </c>
       <c r="S25">
-        <v>0.000127349296995194</v>
+        <v>0.0001431982052649281</v>
       </c>
       <c r="T25">
-        <v>0.000127349296995194</v>
+        <v>0.0001431982052649281</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H26">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I26">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J26">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.382840999999999</v>
+        <v>7.140497666666666</v>
       </c>
       <c r="N26">
-        <v>28.148523</v>
+        <v>21.421493</v>
       </c>
       <c r="O26">
-        <v>0.5357902798812642</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="P26">
-        <v>0.5357902798812642</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="Q26">
-        <v>290.0556608396287</v>
+        <v>80.07242691636399</v>
       </c>
       <c r="R26">
-        <v>2610.500947556658</v>
+        <v>720.6518422472759</v>
       </c>
       <c r="S26">
-        <v>0.09042668421126704</v>
+        <v>0.026339908050861</v>
       </c>
       <c r="T26">
-        <v>0.09042668421126707</v>
+        <v>0.026339908050861</v>
       </c>
     </row>
   </sheetData>
